--- a/dashboard_loader/education_uaece_uploader/education_uaece.xlsx
+++ b/dashboard_loader/education_uaece_uploader/education_uaece.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t xml:space="preserve">Increase the proportion of children enrolled in the year before full-time school in quality early childhood education programme(s) to 95%</t>
   </si>
@@ -107,7 +107,19 @@
     <t xml:space="preserve">Under the National Partnership, states and territories can provide supplementary data and contextual information to aid interpretation of their performance in recognition of data quality and volatility issues. Figure 35 has been derived from the National Collection and 2015 supplementary data provided by all jurisdictions. All states and territories have committed to working with the Australian Government to improve the quality of early childhood data.</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 2008 data from National Partnership Agreement on Early Childhood Education State and Territory Bilateral Agreements. 2015 data from the National Early Childhood Education and Care Collection (ABS Cat. No. 4240.0) and ABS Estimated Residential Population (ABS Cat 1367.0), ABS Estimates and Projections, Aboriginal and Torres Strait Islander Australians, 2001 to 2026 (ABS Cat. No. 3238.0) and ABS Population by Age and Sex, Regions of Australia (ABS Cat. No. 3235.0). Includes supplementary data from some jurisdictions. </t>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008 data from National Partnership Agreement on Early Childhood Education State and Territory Bilateral Agreements. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015 data from the National Early Childhood Education and Care Collection (ABS Cat. No. 4240.0) and ABS Estimated Residential Population (ABS Cat 1367.0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ABS Estimates and Projections, Aboriginal and Torres Strait Islander Australians, 2001 to 2026 (ABS Cat. No. 3238.0) and ABS Population by Age and Sex, Regions of Australia (ABS Cat. No. 3235.0). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Includes supplementary data from some jurisdictions. </t>
   </si>
 </sst>
 </file>
@@ -117,7 +129,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -141,26 +153,164 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF969696"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFFFCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -171,7 +321,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -195,42 +345,170 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="36" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="36" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="36" builtinId="53" customBuiltin="true"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -241,15 +519,15 @@
   </sheetPr>
   <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="40.7044534412955"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="1" width="8.57085020242915"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="40.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="1" width="8.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,15 +720,15 @@
   </sheetPr>
   <dimension ref="A1:B65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="3" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="3" width="91.0526315789474"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="3" width="9.10526315789474"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="10.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="3" width="91.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="3" style="3" width="9.11"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -516,15 +794,30 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="4" t="s">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B10" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/dashboard_loader/education_uaece_uploader/education_uaece.xlsx
+++ b/dashboard_loader/education_uaece_uploader/education_uaece.xlsx
@@ -721,7 +721,7 @@
   <dimension ref="A1:B65536"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -760,7 +760,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2015</v>
+        <v>2016</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="35.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
